--- a/assets/sampleExcel/sample (subNetwork & network).xlsx
+++ b/assets/sampleExcel/sample (subNetwork & network).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\WebstormProjects\bonyad\assets\sampleExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE02F000-C790-425B-A39E-E6C60A2A9684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69A6240-0D8A-42E3-B839-675A93B93517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C6E4011-DB4A-45A9-A7BD-FF94BB3596EC}"/>
   </bookViews>
@@ -8360,7 +8360,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8375,16 +8375,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -8392,25 +8412,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{8F21D493-6CFE-4DE3-B2AF-5C7EF64E75F9}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -8424,21 +8453,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E255EB0F-A4EB-4C49-9C43-0A1173354F6D}" name="Table1524" displayName="Table1524" ref="G1:H4" insertRowShift="1" totalsRowShown="0">
-  <autoFilter ref="G1:H4" xr:uid="{E255EB0F-A4EB-4C49-9C43-0A1173354F6D}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E255EB0F-A4EB-4C49-9C43-0A1173354F6D}" name="Table1524" displayName="Table1524" ref="G1:G4" insertRowShift="1" totalsRowShown="0">
+  <autoFilter ref="G1:G4" xr:uid="{E255EB0F-A4EB-4C49-9C43-0A1173354F6D}"/>
+  <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{5E2A5C4E-FCAA-476C-B8D9-C5D9F939CC7C}" name="استان"/>
-    <tableColumn id="3" xr3:uid="{2875AC6E-14DE-46A3-A8D9-2B66AAC78B7B}" name="province" dataDxfId="0">
-      <calculatedColumnFormula>VLOOKUP(Table1524[[#This Row],[استان]],Data!E1:G31,3,FALSE)</calculatedColumnFormula>
-    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1AEF49F8-6B11-4E00-849A-D33912A51BAC}" name="Table1636" displayName="Table1636" ref="I1:I4" insertRowShift="1" totalsRowShown="0">
-  <autoFilter ref="I1:I4" xr:uid="{1AEF49F8-6B11-4E00-849A-D33912A51BAC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{1AEF49F8-6B11-4E00-849A-D33912A51BAC}" name="Table1636" displayName="Table1636" ref="H1:H4" insertRowShift="1" totalsRowShown="0">
+  <autoFilter ref="H1:H4" xr:uid="{1AEF49F8-6B11-4E00-849A-D33912A51BAC}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{F9EA52C6-BEFF-4393-8FB6-CE592E13F306}" name="شهر"/>
   </tableColumns>
@@ -8841,7 +8867,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8849,10 +8875,11 @@
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="16.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8875,13 +8902,13 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>2751</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2758</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -8906,15 +8933,15 @@
       <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="str">
-        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E1:G31,3,FALSE)</f>
+      <c r="H2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
         <v>chaharmahal</v>
-      </c>
-      <c r="I2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -8939,15 +8966,15 @@
       <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="str">
+      <c r="H3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3" s="4" t="str">
         <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
         <v>zanjan</v>
-      </c>
-      <c r="I3" t="s">
-        <v>325</v>
-      </c>
-      <c r="J3">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -8972,27 +8999,27 @@
       <c r="G4" t="s">
         <v>68</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H4" t="s">
+        <v>789</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4" t="str">
         <f>VLOOKUP(Table1524[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
         <v>kordestan</v>
       </c>
-      <c r="I4" t="s">
-        <v>789</v>
-      </c>
-      <c r="J4">
-        <v>30</v>
-      </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3" xr:uid="{618B8749-27F1-48EC-9083-1D2714515CA4}">
-      <formula1>INDIRECT($H$3)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{618B8749-27F1-48EC-9083-1D2714515CA4}">
+      <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{49F18CB9-9D06-4130-8300-7947BA9BC17E}">
-      <formula1>INDIRECT($H$2)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{49F18CB9-9D06-4130-8300-7947BA9BC17E}">
+      <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4" xr:uid="{4106BDC8-B2B1-4882-BD39-8B4E20427FF8}">
-      <formula1>INDIRECT($H$4)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{4106BDC8-B2B1-4882-BD39-8B4E20427FF8}">
+      <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4" xr:uid="{13C182AE-405F-41F9-8161-6D88F43585DC}">
       <formula1>provinces</formula1>
